--- a/Fase II - Ejecucion/6000 Pruebas de Pasivos y Patrimonio/6200 Otras cuentas por Pagar/Auditoria de otras cuentas por pagar.xlsx
+++ b/Fase II - Ejecucion/6000 Pruebas de Pasivos y Patrimonio/6200 Otras cuentas por Pagar/Auditoria de otras cuentas por pagar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\Grafimpac\Fase II - Ejecucion\6000 Pruebas de Pasivos y Patrimonio\6200 Otras cuentas por Pagar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576BBC89-5DFA-403A-B090-2AD46CA9284B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF23CDA5-D2B0-433E-80A0-0A56AB8E25E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="721" xr2:uid="{C5418CD9-7BFD-4447-B8CB-6EB440F8DF36}"/>
   </bookViews>
@@ -16,13 +16,14 @@
     <sheet name="Resumen por auxiliar" sheetId="4" r:id="rId1"/>
     <sheet name="Proveed varios 2020" sheetId="5" r:id="rId2"/>
     <sheet name="Proveed varios 2021" sheetId="6" r:id="rId3"/>
-    <sheet name="Mayor 2021" sheetId="2" r:id="rId4"/>
-    <sheet name="Mayor 2020" sheetId="3" r:id="rId5"/>
-    <sheet name="Resumen x codigo" sheetId="1" r:id="rId6"/>
+    <sheet name="Por liquidar" sheetId="7" r:id="rId4"/>
+    <sheet name="Mayor 2021" sheetId="2" r:id="rId5"/>
+    <sheet name="Mayor 2020" sheetId="3" r:id="rId6"/>
+    <sheet name="Resumen x codigo" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Mayor 2020'!$A$1:$I$877</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mayor 2021'!$A$1:$I$385</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Mayor 2020'!$A$1:$I$877</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Mayor 2021'!$A$1:$I$385</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Proveed varios 2020'!$A$14:$N$209</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Proveed varios 2021'!$A$18:$N$107</definedName>
   </definedNames>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6965" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7030" uniqueCount="1224">
   <si>
     <t>GRAFIMPAC S.A.</t>
   </si>
@@ -3713,6 +3714,15 @@
   </si>
   <si>
     <t>Tipo de transaccion</t>
+  </si>
+  <si>
+    <t>Por Liquidar</t>
+  </si>
+  <si>
+    <t>S a l d o    I n i c i a l Por Liquidar</t>
+  </si>
+  <si>
+    <t>100 Total</t>
   </si>
 </sst>
 </file>
@@ -4000,7 +4010,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -4103,6 +4113,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -18720,6 +18731,444 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99DED6A-4E4D-40F9-B6B4-8DD3313C45EA}">
+  <dimension ref="A6:R13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:18" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>201030401003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="58">
+        <v>44196</v>
+      </c>
+      <c r="H6" s="62">
+        <v>0</v>
+      </c>
+      <c r="I6" s="62">
+        <v>0</v>
+      </c>
+      <c r="J6" s="62">
+        <v>43191.4</v>
+      </c>
+      <c r="K6" s="62">
+        <v>3533515.15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>201030401003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>8257</v>
+      </c>
+      <c r="G7" s="58">
+        <v>44197</v>
+      </c>
+      <c r="H7" s="62">
+        <v>43191.4</v>
+      </c>
+      <c r="I7" s="62">
+        <v>0</v>
+      </c>
+      <c r="J7" s="62">
+        <v>0</v>
+      </c>
+      <c r="K7" s="62">
+        <v>3490323.75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>201030401003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>8332</v>
+      </c>
+      <c r="G8" s="58">
+        <v>44255</v>
+      </c>
+      <c r="H8" s="62">
+        <v>0</v>
+      </c>
+      <c r="I8" s="62">
+        <v>80000</v>
+      </c>
+      <c r="J8" s="62">
+        <v>0</v>
+      </c>
+      <c r="K8" s="62">
+        <v>3570323.75</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>201030401003</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>8339</v>
+      </c>
+      <c r="G9" s="58">
+        <v>44255</v>
+      </c>
+      <c r="H9" s="62">
+        <v>0</v>
+      </c>
+      <c r="I9" s="62">
+        <v>95000</v>
+      </c>
+      <c r="J9" s="62">
+        <v>0</v>
+      </c>
+      <c r="K9" s="62">
+        <v>3665323.75</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>201030401003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10">
+        <v>9861</v>
+      </c>
+      <c r="G10" s="58">
+        <v>44294</v>
+      </c>
+      <c r="H10" s="62">
+        <v>0</v>
+      </c>
+      <c r="I10" s="62">
+        <v>1279</v>
+      </c>
+      <c r="J10" s="62">
+        <v>0</v>
+      </c>
+      <c r="K10" s="62">
+        <v>3666602.75</v>
+      </c>
+      <c r="L10" t="s">
+        <v>159</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>201030401003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11">
+        <v>10116</v>
+      </c>
+      <c r="G11" s="58">
+        <v>44327</v>
+      </c>
+      <c r="H11" s="62">
+        <v>236.31</v>
+      </c>
+      <c r="I11" s="62">
+        <v>0</v>
+      </c>
+      <c r="J11" s="62">
+        <v>0</v>
+      </c>
+      <c r="K11" s="62">
+        <v>3666366.44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>239</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>201030401003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12">
+        <v>10283</v>
+      </c>
+      <c r="G12" s="58">
+        <v>44361</v>
+      </c>
+      <c r="H12" s="62">
+        <v>236.3</v>
+      </c>
+      <c r="I12" s="62">
+        <v>0</v>
+      </c>
+      <c r="J12" s="62">
+        <v>0</v>
+      </c>
+      <c r="K12" s="62">
+        <v>3666130.14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>288</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1100</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1100</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="72" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G13" s="58"/>
+      <c r="H13" s="62">
+        <f>SUBTOTAL(9,H6:H12)</f>
+        <v>43664.01</v>
+      </c>
+      <c r="I13" s="62">
+        <f>SUBTOTAL(9,I6:I12)</f>
+        <v>176279</v>
+      </c>
+      <c r="J13" s="62">
+        <f>SUBTOTAL(9,J6:J12)</f>
+        <v>43191.4</v>
+      </c>
+      <c r="K13" s="62">
+        <f>SUBTOTAL(9,K6:K12)</f>
+        <v>25258585.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384B9CD7-E7B5-4B25-8BEE-BD6058384BE5}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J385"/>
@@ -29918,7 +30367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011CED9E-4AB1-40ED-9970-45BFFBA16491}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I877"/>
@@ -55382,7 +55831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D1EE49-149E-461C-BB6F-6C712F2B37EB}">
   <dimension ref="A1:G29"/>
   <sheetViews>
